--- a/biology/Botanique/Celtis_glabrata/Celtis_glabrata.xlsx
+++ b/biology/Botanique/Celtis_glabrata/Celtis_glabrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celtis glabrata est une espèce d'arbres à feuilles caduques de la famille des Cannabaceae. Cette espèce est originaire de certaines parties de l'Europe de l'Est et de l'Asie occidentale[1],[2]. Son nom commun en turc est dahum[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celtis glabrata est une espèce d'arbres à feuilles caduques de la famille des Cannabaceae. Cette espèce est originaire de certaines parties de l'Europe de l'Est et de l'Asie occidentale,. Son nom commun en turc est dahum.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celtis glabrata est connu dans des endroits dispersés dans le sud-est de l'Europe et en Asie occidentale, notamment en Bulgarie, Roumanie, Macédoine du Nord, Grèce, Ukraine ( Crimée), le sud de la Russie, l'Arménie, l'Azerbaïdjan, la Géorgie, la Turquie, le Liban et Syrie[3].
-On le trouve généralement dans les zones sèches et rocheuses, y compris les falaises intérieures et les flancs de montagnes, du niveau de la mer jusqu'à 900 mètres d'altitude[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celtis glabrata est connu dans des endroits dispersés dans le sud-est de l'Europe et en Asie occidentale, notamment en Bulgarie, Roumanie, Macédoine du Nord, Grèce, Ukraine ( Crimée), le sud de la Russie, l'Arménie, l'Azerbaïdjan, la Géorgie, la Turquie, le Liban et Syrie.
+On le trouve généralement dans les zones sèches et rocheuses, y compris les falaises intérieures et les flancs de montagnes, du niveau de la mer jusqu'à 900 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celtis glabrata est un grand arbuste ou un petit arbre[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celtis glabrata est un grand arbuste ou un petit arbre.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Celtis glabrata Steven ex Planch.[4].
-Celtis glabrata a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Celtis glabrata Steven ex Planch..
+Celtis glabrata a pour synonymes :
 Celtis glabrata Steven
 Celtis planchoniana K.I.Chr.
 Celtis tournefortii var. glabrata (Steven ex Planch.) Boiss.</t>
